--- a/outputs/KOLKATA3.xlsx
+++ b/outputs/KOLKATA3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to complete their task, which involves adding information to the README. The README file is a common and standard file in repositories, making it a logical step for Abi to consider. Additionally, Abi's comprehensive information processing style would lead them to locate and refer to the README file as it likely contains critical information about the project.</t>
+Why: The README file is prominently listed in the file directory on the GitHub repository page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that finding the README is a necessary step toward adding information to it. The README file is clearly labeled and easily accessible, making it a logical step in the process.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read aligns with Abi's comprehensive information processing style. The page contains a list of files, including the README.md file, which is a common file in repositories. By scrolling down, Abi can gather more information, which fits their style of forming a complete understanding before taking further action. The page is clear and straightforward, providing a good amount of relevant information.</t>
+Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory at the top. This makes it easy for Abi to understand that scrolling down to gather more information is a logical next step.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Upon scrolling down, Abi will see the file list where README.md is prominently displayed. This confirms to Abi that they are making progress towards finding the README file. The README.md file is easily recognizable in the file list, and this visibility assures Abi that they are on the right track. The page provides all the relevant information needed to proceed, fitting with Abi's comprehensive information processing style.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down, Abi will see a lot of information about the project, but it may not be immediately clear that she is making progress toward finding the README file. The README file is listed at the top of the page, and scrolling down does not provide additional information about how to access or edit it. Given Abi's comprehensive information processing style and low computer self-efficacy, she might feel uncertain about whether she is on the right track and may not feel confident that she has all the information she needs to proceed.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The README.md file is clearly listed among the files in the repository. Abi, following their comprehensive information processing style, would recognize the README.md as the file they need to access. The file is explicitly named and visible, making it clear to Abi that clicking on it is the next logical step to view its contents and proceed with adding information. The page provides a straightforward path to the README.md file, ensuring Abi knows what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The README.md file is clearly listed in the file directory at the top of the page. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will likely recognize that clicking on the README.md file is the next logical step toward adding information to it. The page is straightforward and provides a clear indication of what to do next.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After clicking on README.md, Abi will be directed to the README file's contents. This page provides detailed information about the project, confirming to Abi that they have done the right thing and are making progress towards their goal of adding information to the README. The comprehensive details in the README file align with Abi's information processing style, ensuring they have all the information they need. The clear presentation and structure of the README further support Abi in understanding the project's context and content.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on README.md, Abi will land on a page that clearly displays the contents of the README file. This page provides detailed information about the project, which aligns with Abi's comprehensive information processing style. She will know that she has done the right thing and is making progress toward her goal of adding information to the README. The page is well-organized and provides all the necessary information she needs to proceed.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To add information to the README, Abi needs to know how to edit it. This step is essential to achieve the overall use case. Abi's motivations to complete their task and their comprehensive information processing style would lead them to consider finding out how to edit the README as a necessary step. Understanding the process of editing the README is crucial for making any modifications.</t>
+Why: Abi is motivated to accomplish her task of adding information to the README. To do this, she will need to find out how to edit the README file. Given her comprehensive information processing style, she will recognize that understanding how to edit the file is a necessary step toward achieving her overall goal. This step is logical and essential in the process of adding information to the README.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: Although the pencil icon/button is commonly associated with editing, Abi's low computer self-efficacy might make them unsure about clicking it without explicit instructions. There is no direct indication or text explaining that clicking the pencil icon will allow them to edit the README.md file. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided here. Therefore, Abi might hesitate to click the pencil button due to uncertainty about its function.</t>
+Why: The pencil button, which is used to edit the README file, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident about clicking an unfamiliar icon without clear instructions. Abi might be hesitant to click the pencil button without knowing for sure that it will allow her to edit the README file.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an edit screen for the README.md file. This screen clearly shows the contents of the README.md file in an editable format, indicating to Abi that they can now make changes. The presence of "Edit" in the tabs and the text area containing the README contents confirm that Abi is in the right place to edit the file. This clear and straightforward interface aligns with Abi's comprehensive information processing style, ensuring they know they are making progress toward their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking the pencil button, Abi will be taken to an edit page where the README file is displayed in an editable format. This clear transition to an editing interface will confirm to Abi that she has done the right thing and is making progress toward her goal of adding information to the README. The page provides all the necessary information and tools she needs to proceed with editing, aligning with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page Abi lands on after clicking the pencil button provides a clear and straightforward interface for editing the README.md file. The text is displayed in an editable format, and Abi can see the content they need to modify. The interface is simple and uncluttered, allowing Abi to focus on making the necessary edits. This aligns with Abi's comprehensive information processing style, ensuring they can proceed with editing the file without confusion. The presence of familiar text-editing features and the clear structure of the page make it intuitive for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly displays the README file in an editable format, with a text editor interface that is straightforward and familiar. Abi, motivated to complete her task, will recognize that she can now edit the file directly. The interface is simple and intuitive, providing all the necessary tools for editing, which aligns with Abi's comprehensive information processing style. She will know what to do at this step and feel confident in proceeding with the edit.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After editing the file, Abi will see their changes reflected in the text area. The interface clearly shows the modified content, confirming to Abi that their edits have been applied. This immediate feedback ensures that Abi knows they are making progress toward their goal. The page's layout, with options to "Cancel changes" or "Commit changes," provides clear next steps, helping Abi to understand that they are on the right track. The comprehensiveness and clarity of this interface align with Abi's information processing style, ensuring they have all the information they need to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After editing the file, Abi will see her changes reflected in the text editor. This immediate feedback will confirm that she has done the right thing and is making progress toward her goal of adding information to the README. The interface remains clear and straightforward, providing all the necessary information and tools she needs to continue editing. This aligns with her comprehensive information processing style and motivation to complete the task.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current screen does not show a "Preview change" button or option, which means Abi might not know how to preview their changes. The interface lacks explicit guidance or instructions on how to preview the changes made to the README.md file. Given Abi's low computer self-efficacy and preference for process-oriented learning, the absence of clear instructions or a visible preview option may prevent them from confidently taking this action. Abi might hesitate or feel uncertain about how to proceed without adequate guidance.</t>
+Why: The "Preview changes" button is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident about clicking an unfamiliar button without clear instructions. Abi might be hesitant to click the "Preview changes" button without knowing for sure what it will do, and there is no immediate indication on the page that this is the next step she should take.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After clicking 'preview change', Abi will see a rendered view of the README.md file with their edits. This visual confirmation ensures that Abi knows their changes have been successfully applied and allows them to verify the modifications in the context of the formatted document. The clear presentation of the changes and the ability to see the final appearance of the document ensures Abi that they are making progress toward their goal. This aligns with Abi's comprehensive information processing style by providing the necessary feedback and assurance that their actions are correct.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits. This visual confirmation will let her know that she has done the right thing and is making progress toward her goal. The page clearly shows the changes she made, providing all the information she needs to ensure her edits are correct. This aligns with her comprehensive information processing style and motivation to complete the task.</t>
         </is>
       </c>
     </row>

--- a/outputs/KOLKATA3.xlsx
+++ b/outputs/KOLKATA3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README file is prominently listed in the file directory on the GitHub page, making it easy to locate. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize finding the README as a necessary step toward adding information to it.</t>
+Why: The README file is clearly listed in the file directory on the GitHub page, making it easy for ABI to identify. Given ABI's motivation to accomplish tasks and their comprehensive information processing style, they would recognize finding the README as a necessary step toward adding information to it. The file is prominently displayed, which aligns with ABI's need for clear and accessible information.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to read more information aligns with Abi's comprehensive information processing style. The page is well-organized, and the README file is clearly listed in the file directory, making it straightforward for Abi to understand that scrolling down could provide additional context or instructions.</t>
+Why: Scrolling down to read more information aligns with ABI's comprehensive information processing style. The page is well-organized, and scrolling down will allow ABI to gather more context and details, which is consistent with their approach of forming a complete understanding before taking action. The layout and structure of the page make it clear that more information is available below, encouraging ABI to scroll down.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: After scrolling down, Abi will not find additional information specifically about the README file. The page contains a lot of information about the project, but it does not provide clear instructions or guidance on how to find or edit the README file. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may feel uncertain about whether she is making progress toward her goal and may not get the specific information she needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down, ABI will not find additional information specifically about the README file. The README file is already visible in the file directory at the top of the page, and scrolling down does not provide further details or instructions related to it. ABI might not realize that they have already seen the README file listed and may feel uncertain about their progress due to their low computer self-efficacy. The additional content below is about the project itself and does not directly help in finding or editing the README file.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The README.md file is clearly listed in the file directory, making it straightforward for Abi to identify it as the file she needs to access. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi will likely understand that clicking on README.md is the appropriate next step to find and add information to the README.</t>
+Why: The README.md file is clearly listed in the file directory at the top of the page, making it easy for ABI to identify. Given ABI's motivation to accomplish tasks and their comprehensive information processing style, they would recognize that clicking on the README.md file is a necessary step toward adding information to it. The file is prominently displayed, and its purpose is clear, which aligns with ABI's need for clear and accessible information.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on README.md, Abi will be taken to a page that displays the contents of the README file. This page provides detailed information about the project, which aligns with Abi's comprehensive information processing style. She will know that she did the right thing because she can see the README content, confirming that she is making progress toward her goal of adding information to it. The page is well-organized and provides all the necessary information she needs to proceed.</t>
+Why: After clicking on README.md, ABI will land on a page that displays the contents of the README file. This page provides detailed information about the project, which aligns with ABI's comprehensive information processing style. ABI will recognize that they have accessed the README file and are making progress toward their goal of adding information to it. The clear presentation of the README content will confirm to ABI that they have done the right thing and are on the correct path.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to accomplish her task of adding information to the README. To do this, she needs to find out how to edit it. Given her comprehensive information processing style, she would naturally consider finding out how to edit the README as a necessary step toward achieving her overall goal. This step is logical and aligns with her methodical approach to gathering information before taking action.</t>
+Why: ABI is motivated to complete the task of adding information to the README, and finding out how to edit it is a logical step toward achieving this goal. Given ABI's comprehensive information processing style, they would recognize the need to understand the editing process before proceeding. This step is essential for ensuring that they can successfully add the required information to the README file.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The pencil button, which is the edit button, is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident in clicking an unfamiliar icon without clear instructions or confirmation that it is the correct action to take. Abi might hesitate to click the pencil button without knowing for sure that it will allow her to edit the README.</t>
+Why: The pencil button, which is the edit button, is not explicitly labeled or explained on the page. Given ABI's low computer self-efficacy, they might not feel confident about clicking an unfamiliar icon without clear instructions. Additionally, ABI prefers process-oriented learning and might need a step-by-step guide or explicit instructions to feel comfortable taking this action. The lack of clear labeling or instructions on the page makes it difficult for ABI to know that clicking the pencil button is the correct step to edit the README.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the pencil button, Abi will be taken to an edit page where she can see the README content in an editable format. This clear transition to an editing interface will confirm to Abi that she did the right thing and is making progress toward her goal of adding information to the README. The page provides a straightforward editing environment, which aligns with her motivation to accomplish the task and her comprehensive information processing style.</t>
+Why: After clicking the pencil button, ABI will be taken to an edit page where the contents of the README file are displayed in an editable format. This clear transition to an editing interface will confirm to ABI that they have done the right thing and are making progress toward their goal of adding information to the README. The page provides a straightforward text editor, which aligns with ABI's need for clear and accessible information, allowing them to proceed with their task confidently.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly shows the README content in an editable format, with a straightforward text editor interface. Abi, motivated to add information to the README, will recognize that she can directly edit the text. The interface is simple and intuitive, which aligns with her comprehensive information processing style, allowing her to proceed with editing the file confidently.</t>
+Why: The page ABI lands on after clicking the pencil button is a straightforward text editor displaying the contents of the README file. Given ABI's motivation to complete the task and their comprehensive information processing style, they will recognize that they need to edit the text directly in this editor. The interface is clear and intuitive, showing the text in an editable format, which makes it easy for ABI to understand what to do next. The presence of familiar text-editing options and the clear layout will help ABI feel confident in proceeding with the edit.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After editing the file, Abi will see her changes reflected in the text, confirming that she is making progress toward her goal. The interface remains clear and straightforward, allowing her to see the modifications she has made. This visual confirmation aligns with her motivation to complete the task and her comprehensive information processing style, ensuring she knows she did the right thing and is on the right track.</t>
+Why: After editing the file, ABI will see their changes reflected in the text editor. This immediate feedback will confirm to ABI that they have successfully made edits to the README file, indicating progress toward their goal. The clear and straightforward interface of the text editor, along with the visible changes, will provide ABI with the necessary information to know that they are on the right track. This aligns with ABI's motivation to complete the task and their comprehensive information processing style, as they can see the direct results of their actions.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Preview changes" button is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy and preference for process-oriented learning, she may not feel confident in clicking an unfamiliar button without clear instructions or confirmation that it is the correct action to take. Abi might hesitate to click the "Preview changes" button without knowing for sure that it will allow her to see the changes she has made.</t>
+Why: The "Preview changes" button is not explicitly labeled or explained on the page. Given ABI's low computer self-efficacy, they might not feel confident about clicking an unfamiliar button without clear instructions. Additionally, ABI prefers process-oriented learning and might need a step-by-step guide or explicit instructions to feel comfortable taking this action. The lack of clear labeling or instructions on the page makes it difficult for ABI to know that clicking the "Preview changes" button is the correct step to preview their edits.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Preview changes," Abi will see a rendered view of the README file with her edits clearly displayed. This visual confirmation will let her know that she did the right thing and is making progress toward her goal. The page provides a clear and accurate preview of the changes, which aligns with her motivation to complete the task and her comprehensive information processing style, ensuring she has all the information she needs to proceed.</t>
+Why: After clicking "Preview changes," ABI will see a rendered view of the README file with their edits. This visual confirmation will help ABI understand that they have successfully previewed their changes, providing immediate feedback that they are making progress toward their goal. The clear and straightforward interface showing the formatted text will align with ABI's comprehensive information processing style, allowing them to verify their edits and feel confident in their actions. This step provides the necessary information for ABI to know they are on the right track.</t>
         </is>
       </c>
     </row>
